--- a/chapter6/Chapter6-1a.xlsx
+++ b/chapter6/Chapter6-1a.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866EC5CA-5B67-4D76-9C09-3337353088F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet2!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet2!$B$4:$G$4</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -25,23 +25,23 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet2!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet2!$M$2</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -55,15 +55,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{91FCBE36-B283-4922-8BDC-188B5D8ED6A0}" keepAlive="1" name="Query - Chapter6" description="Connection to the 'Chapter6' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - Chapter6" description="Connection to the 'Chapter6' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Chapter6;Extended Properties=&quot;&quot;" command="SELECT * FROM [Chapter6]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>patientID</t>
   </si>
@@ -85,12 +85,60 @@
   <si>
     <t>gene5</t>
   </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>mx+b</t>
+  </si>
+  <si>
+    <t>p(1)</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Total Diff</t>
+  </si>
+  <si>
+    <t>Propensity</t>
+  </si>
+  <si>
+    <t>Ln(Prop)</t>
+  </si>
+  <si>
+    <t>To maximise</t>
+  </si>
+  <si>
+    <t>LINEST</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -225,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -402,2047 +450,4261 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5134FF-F2E8-4598-99E1-B1FA8EE66866}">
-  <dimension ref="A5:G92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <f>SUM(K7:K93)</f>
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <f>PRODUCT(L7:L93)</f>
+        <v>3.3619356023298546E-13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <f>INDEX(LINEST($G$7:$G$93,$B$7:$F$93),1,B1)</f>
+        <v>-3.1646397523048833E-4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:G3" si="0">INDEX(LINEST($G$7:$G$93,$B$7:$F$93),1,C1)</f>
+        <v>3.0100064130602002E-3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>-5.1330433103881556E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>-5.1011808354464684E-4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-7.4155185513976685E-4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.53557402517470798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>-2.0320174937738369E-2</v>
+      </c>
+      <c r="C4">
+        <v>-7.9401096089980628E-3</v>
+      </c>
+      <c r="D4">
+        <v>-9.7140795828600163E-2</v>
+      </c>
+      <c r="E4">
+        <v>-1.0731793566219587E-2</v>
+      </c>
+      <c r="F4">
+        <v>-3.7996782772397801E-3</v>
+      </c>
+      <c r="G4">
+        <v>4.2231464577771813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>92.082599999999999</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>443.37349999999998</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>350.94664</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>11.1876</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>77.926000000000002</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>SUMPRODUCT($B$4:$F$4,B7:F7)+$G$4</f>
+        <v>-35.675814916776581</v>
+      </c>
+      <c r="I7">
+        <f>1/(1+EXP(-H7))</f>
+        <v>3.2076756270458036E-16</v>
+      </c>
+      <c r="J7">
+        <f>IF(I7&gt;0.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>IF(J7=G7,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>IF(G7=1,I7,1-I7)</f>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="M7">
+        <f>LN(L7)</f>
+        <v>-3.3306690738754701E-16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>97.122799999999998</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>29.215617999999999</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>2.5790069999999998</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>301.86840000000001</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>171.99680000000001</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H71" si="1">SUMPRODUCT($B$4:$F$4,B8:F8)+$G$4</f>
+        <v>-2.126029687987697</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I71" si="2">1/(1+EXP(-H8))</f>
+        <v>0.10659249647715309</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J71" si="3">IF(I8&gt;0.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K71" si="4">IF(J8=G8,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L71" si="5">IF(G8=1,I8,1-I8)</f>
+        <v>0.89340750352284692</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M71" si="6">LN(L8)</f>
+        <v>-0.11271247126029442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>7.7399500000000003</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>42.368420999999998</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>39.907121000000004</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>9.2879000000000005</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>104.2632</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-0.64299252171978161</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.34457038940159102</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0.34457038940159102</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>-1.0654568860277838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>60.212499999999999</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>25.631640999999998</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>2.4203069999999998</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>14.1677</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>94.631600000000006</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2.0493748706420161</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.885884437635587</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>0.885884437635587</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>-0.12116876844653497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>385.47660000000002</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>20.329639</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>5.8317510000000006</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>35.4298</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>71.058799999999991</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-4.9879518622721868</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>6.773425541809262E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0.99322657445819074</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>-6.7964693043491911E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>476.64400000000001</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>12.487453</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>4.4061250000000003</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>50.444000000000003</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>104.7838</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-6.9290085631447074</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>9.7801352846340868E-4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>0.99902198647153662</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>-9.7849209574994386E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>25.89</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>18.495145999999998</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>28.721682999999999</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>6.4724000000000004</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>78.398099999999999</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.39280847978306488</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.59695860041566595</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>0.40304139958433405</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>-0.90871599381455792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>142.85714999999999</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>15.411994</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.019015</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>24.378399999999999</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>146.7328</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.27974193996265306</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.56948295594788179</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>0.56948295594788179</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>-0.56302642464129415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>188.6454</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>26.958862</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>12.508009999999999</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>82.019800000000004</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>137.77710000000002</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-2.4429836521821002</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>7.9953157528848864E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>0.92004684247115109</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>-8.3330694505700756E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1383.3642</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>14.225508</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>1.49353</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>312.01479999999998</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>787.2921</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-30.485025987802651</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>5.7613125044937625E-14</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>0.99999999999994238</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>-5.7620574978047291E-14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>365.39699999999999</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>3.2798439999999998</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>0.35542000000000001</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>74.825400000000002</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>132.8732</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-4.5702387644385656</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1.0249349891856465E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>0.98975065010814356</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>-1.030223615535141E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>26.89425</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>40.682699999999997</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>18.960433999999999</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>20.687899999999999</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>204.8443</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0.51143313870729434</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.62514237549808382</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>0.62514237549808382</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>-0.46977585439146319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>10.106999999999999</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>12.223542999999999</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>22.972651999999997</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>9.5124999999999993</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>42.995199999999997</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.4236783671134319</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.80591442073783881</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>0.80591442073783881</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>-0.21577771985738139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>196.50980000000001</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>18.721547999999999</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>5.2238239999999996</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>80.424800000000005</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>292.07130000000001</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>-2.3989439442211387</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>8.3253261482985383E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>0.9167467385170146</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>-8.6924029695045299E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
         <v>15</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>1955.5984000000001</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>10.482625000000001</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>2.3069500000000001</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>44.401600000000002</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>83.880300000000005</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>-36.617514247619091</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>1.2508799207732492E-16</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
         <v>16</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>740.09900000000005</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>10.532177999999998</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>6.4108910000000003</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>168.3168</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>143.81189999999998</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>-13.874960498685185</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>9.4228181450752748E-7</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0.99999905771818554</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>-9.4228225841221745E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
         <v>17</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>327.31139999999999</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>13.294367999999999</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>12.592986000000002</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>95.643000000000001</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>327.86930000000001</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>-6.0289486593774075</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>2.402239650581544E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>0.99759776034941849</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>-2.4051296575047843E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
         <v>18</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>490.31259999999997</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>14.897055</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>8.7857430000000001</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>44.573799999999999</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>264.29129999999998</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>-8.1944083964524026</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>2.7611736367004833E-4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0.99972388263632994</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>-2.7615549108790834E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
         <v>19</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>67.775549999999996</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>23.059925</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>1.0064870000000001</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>61.687899999999999</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>101.27209999999999</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1.5182429382352804</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0.82027959858034749</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0.82027959858034749</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>-0.19811002296374775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
         <v>20</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>331.79719999999998</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>13.179724</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>6.9585249999999998</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>36.866399999999999</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>195.5069</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>-4.4381417148543036</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>1.1679848083953547E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0.9883201519160465</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>-1.1748593323164259E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
         <v>21</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>134.7414</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>14.555197</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>10.089931999999999</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>219.34639999999999</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>148.774</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>-2.5298098657871169</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>7.3794641031199412E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0.92620535896880063</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>-7.6659298978567672E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
         <v>22</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>320.17540000000002</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1.677632</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>3.936404</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>92.105199999999996</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>133.55259999999998</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>-4.1744905860738868</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>1.5149973550230247E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>0.98485002644976971</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>-1.5265906813785837E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
         <v>23</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>86.603800000000007</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>19.735692</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>12.357707</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>16.654599999999999</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>94.949299999999994</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.5666905194411016</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.63799917962589048</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>0.36200082037410952</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>-1.016108800932112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
         <v>24</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>223.03639999999999</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>6.8653369999999994</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>11.744256999999999</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>20.909600000000001</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>485.88369999999998</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>-3.5749494582916412</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>2.7253290626626733E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>0.97274670937337326</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>-2.7631549931344597E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
         <v>25</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>380.80500000000001</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>14.504644000000001</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>8.8080499999999997</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>49.535600000000002</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>209.2105</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>-5.8122056348851761</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>2.9819077540187288E-3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>0.99701809224598126</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>-2.9863624989084612E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
         <v>26</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>192.72819999999999</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>10.003011000000001</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>15.344934</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>23.043600000000001</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>144.40770000000001</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>-2.0591703450943015</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0.11312904335098986</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0.88687095664901017</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>-0.12005579017729506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
         <v>27</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>585.82399999999996</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>23.825790000000001</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>5.473954</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>751.49440000000004</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>188.9624</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>-17.184702430423727</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>3.4417438604407166E-8</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.99999996558256143</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>-3.4417439158083646E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
         <v>28</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>22.633749999999999</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>16.985596999999999</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>21.934155999999998</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>34.979399999999998</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>154.34979999999999</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.53578454463068592</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0.63083125164850273</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.63083125164850273</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>-0.46071688224078072</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
         <v>29</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>281.97320000000002</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>7.5761270000000005</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>4.4457979999999999</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>9.7441999999999993</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>62.337400000000002</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>-2.34005673608916</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>8.7859367887157522E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>8.7859367887157522E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>-2.4320178350067363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
         <v>30</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>320.488</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>11.435773999999999</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>3.7536059999999996</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>23.857600000000001</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>63.967500000000001</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>-3.2437460991442286</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>3.7552263853563722E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>0.96244773614643631</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>-3.827551440210062E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
         <v>31</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>775.38440000000003</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>4.2702330000000002</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>3.2026749999999997</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>137.37450000000001</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>-12.399795614069122</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>4.1194136055142625E-6</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>0.99999588058639444</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>-4.1194220903708668E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
         <v>32</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>220.5718</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>14.028964</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>19.257334</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>151.50380000000001</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>111.1493</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>-4.2892144535507324</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1.3530120372894906E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>0.98646987962710508</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>-1.36224865480837E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
         <v>33</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>51.459299999999999</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>8.6175119999999996</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>9.5852529999999998</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>21.505400000000002</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>32.794199999999996</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>1.8225424624098525</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>0.86087092278248711</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>0.86087092278248711</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>-0.14981070126034782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
         <v>34</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>122.3764</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>9.0537179999999999</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>6.6702239999999993</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>72.572000000000003</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>318.48989999999998</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>-0.97238865671540875</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>0.27440464836795603</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>0.72559535163204392</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>-0.32076278644202255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
         <v>35</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>69.549800000000005</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>36.724414000000003</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>39.827811000000004</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>47.420400000000001</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>104.0339</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>-2.2548200677989296</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>9.4934505915946571E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>0.90506549408405346</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>-9.974796874708157E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
         <v>36</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>161.37200000000001</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>6.2935049999999997</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>1.8288820000000001</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>59.169800000000002</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>193.7681</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>-0.65484550410343889</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>0.34189844628189231</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>0.65810155371810763</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>-0.41839602260793241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
         <v>37</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>551.65499999999997</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>27.582748000000002</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>5.4262789999999992</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>306.92079999999999</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>181.46940000000001</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>-11.716038754328975</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>8.1617910948737708E-6</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>0.99999183820890514</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>-8.1618244024609855E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
         <v>38</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>182.38339999999999</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>19.927461000000001</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>2.7875650000000003</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>10.3626</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>118.2642</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>-0.47250383877976443</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>0.38402379001996423</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>0.61597620998003577</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>-0.48454693635667456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
         <v>39</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>328.18959999999998</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>3.979425</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>1.937022</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>341.23700000000002</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>519.79359999999997</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>-8.3026180479918299</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>2.4780562622466932E-4</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>0.99975219437377538</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>-2.4783633511214E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
         <v>40</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>241.71199999999999</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>8.6438300000000012</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>19.643475000000002</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>970.35080000000005</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>78.42179999999999</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>-13.376881501092265</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>1.5505775994041522E-6</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="5"/>
+        <v>0.99999844942240057</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>-1.5505788015762476E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
         <v>41</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>175.3862</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>21.978076999999999</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>13.692077999999999</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>58.794199999999996</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>78.313400000000001</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>-1.7738324438180726</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>0.14506637428371078</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="5"/>
+        <v>0.85493362571628917</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>-0.15673144379998105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
         <v>42</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>448.85840000000002</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>16.29569</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>12.220743000000001</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>54.878599999999999</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>181.03559999999999</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>-7.4910798610174201</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>5.5772879433055626E-4</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="5"/>
+        <v>0.99944227120566942</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>-5.578843828880955E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
         <v>43</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>58.769100000000002</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>32.248958999999999</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>7.0198979999999995</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>39.796399999999998</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>134.58539999999999</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>1.1525013469597307</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>0.7599675015673748</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="5"/>
+        <v>0.7599675015673748</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>-0.27447960771160146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
         <v>44</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>102.05185</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>21.846651999999999</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>4.7408210000000004</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>15.6587</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>177.72569999999999</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>0.67209665925417195</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>0.66197247719514352</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="5"/>
+        <v>0.66197247719514352</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="6"/>
+        <v>-0.41253129914332504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
         <v>45</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>919.11860000000001</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>12.946122000000001</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>5.4107759999999994</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>9.1707999999999998</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>98.875900000000001</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>-15.556020738943365</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>1.7543084550991992E-7</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="5"/>
+        <v>0.99999982456915448</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="6"/>
+        <v>-1.7543086090506979E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
         <v>46</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>157.173</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>8.236286999999999</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>1.4219409999999999</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>48.101300000000002</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>101.1097</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>-7.4559452199482124E-2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>0.48136876724287858</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="5"/>
+        <v>0.48136876724287858</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="6"/>
+        <v>-0.73112163475144654</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
         <v>47</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>113.3558</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>30.756010999999997</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>13.094432999999999</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>51.192999999999998</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>140.1842</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>-0.67852053703765236</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>0.33659158334881595</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="5"/>
+        <v>0.663408416651184</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="6"/>
+        <v>-0.41036446540588561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
         <v>48</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>417.32279999999997</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>18.725393999999998</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>19.699802999999999</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>200.78739999999999</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>179.03540000000001</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>-9.1543479133828338</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>1.0574778702212815E-4</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="5"/>
+        <v>0.9998942522129779</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="6"/>
+        <v>-1.0575337871354303E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
         <v>49</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>277.78359999999998</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>10.678865</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>27.549641000000001</v>
       </c>
-      <c r="E54">
+      <c r="E55">
         <v>123.92140000000001</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>259.12</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>-6.4969218176247789</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>1.5058033199046971E-3</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="5"/>
+        <v>0.99849419668009531</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="6"/>
+        <v>-1.5069381811187322E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
         <v>50</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>95.724000000000004</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>39.450245000000002</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>8.0348319999999998</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>138.7998</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>163.7998</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>-0.9276885547026037</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>0.28339389185115282</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="5"/>
+        <v>0.71660610814884718</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="6"/>
+        <v>-0.33322895035630867</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
         <v>51</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>133.06120000000001</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>31.008163</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>16.583672999999997</v>
       </c>
-      <c r="E56">
+      <c r="E57">
         <v>5.7141999999999999</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>44.591799999999999</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>-0.56859791822227113</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>0.36156041080722284</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="5"/>
+        <v>0.63843958919277721</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="6"/>
+        <v>-0.44872822162269288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
         <v>52</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>39.968600000000002</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>20.952193999999999</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>14.874608</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>126.1756</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>123.7461</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>-2.4602322263800325E-2</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>0.49384972964761564</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="5"/>
+        <v>0.50615027035238436</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="6"/>
+        <v>-0.68092167680260962</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
         <v>53</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>102.1739</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>27.339130000000001</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>3.93913</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>38.260899999999999</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>165.08699999999999</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>0.50934345560677929</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>0.62465255252934426</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="5"/>
+        <v>0.62465255252934426</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="6"/>
+        <v>-0.47055969977734929</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
         <v>54</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>16.966049999999999</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>50.933134000000003</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>29.780439000000001</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>12.475</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>41.914200000000001</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>0.28794354251342469</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>0.57149260371679611</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="5"/>
+        <v>0.57149260371679611</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="6"/>
+        <v>-0.55950373770889061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
         <v>55</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>293.51799999999997</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>43.684224</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>7.0100840000000009</v>
       </c>
-      <c r="E60">
+      <c r="E61">
         <v>48.919600000000003</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <v>206.62729999999999</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>-4.0791256267640126</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>1.6640658084486157E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="5"/>
+        <v>0.98335934191551388</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="6"/>
+        <v>-1.6780669260553254E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62">
         <v>56</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>133.33340000000001</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>23.614379</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>10.098039</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <v>24.836600000000001</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>92.9739</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>-0.27445602990996054</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>0.43181347495507461</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="5"/>
+        <v>0.56818652504492539</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="6"/>
+        <v>-0.56530552500530451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
         <v>57</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>131.6343</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>12.737845</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>5.5919829999999999</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>3.4641000000000002</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>38.589300000000001</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>0.72016195857138632</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>0.67264268045230347</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="5"/>
+        <v>0.67264268045230347</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="6"/>
+        <v>-0.39654102576844918</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
         <v>58</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>30.389150000000001</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>42.006177000000001</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>11.147621999999998</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>37.554000000000002</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>141.80420000000001</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>1.2473789773094488</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>0.77684581985865175</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="5"/>
+        <v>0.77684581985865175</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="6"/>
+        <v>-0.25251337834468007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
         <v>59</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>88.869799999999998</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>19.162552000000002</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>18.752382999999998</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>8.5451999999999995</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>113.0153</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>-7.7604699263273069E-2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>0.48060855627107552</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="5"/>
+        <v>0.51939144372892443</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="6"/>
+        <v>-0.65509745326437019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
         <v>60</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>59.764200000000002</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>9.0393369999999997</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>19.432707000000001</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>42.955599999999997</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>50.213000000000001</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>0.39746163205837393</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>0.59807763745128939</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="5"/>
+        <v>0.40192236254871061</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="6"/>
+        <v>-0.91149633700300947</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
         <v>61</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>34.296950000000002</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>31.876763999999998</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>12.722233000000001</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>112.9211</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>79.889099999999999</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="1"/>
+        <v>0.52187478314059721</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="2"/>
+        <v>0.62758604871085144</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="5"/>
+        <v>0.62758604871085144</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="6"/>
+        <v>-0.46587448795789393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
         <v>62</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>75.825500000000005</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>11.58989</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>0.627803</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <v>5.2995999999999999</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>44.250700000000002</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>2.3043361163096954</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>0.90923551813720693</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="5"/>
+        <v>0.90923551813720693</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="6"/>
+        <v>-9.515112250368038E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
         <v>63</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>60.285200000000003</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>15.595087000000001</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>11.274884</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>2.5413000000000001</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>4.9297000000000004</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>1.733058761850482</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="2"/>
+        <v>0.84980325140752389</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="5"/>
+        <v>0.84980325140752389</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="6"/>
+        <v>-0.16275042522316766</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
         <v>64</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>52.327399999999997</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>17.149459999999998</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>7.4723649999999999</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <v>26.512599999999999</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <v>175.00550000000001</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>1.3483121139320251</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="2"/>
+        <v>0.79385354248437745</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="5"/>
+        <v>0.20614645751562255</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="6"/>
+        <v>-1.5791684039903477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
         <v>65</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>112.3224</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>20.515362</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>19.081599000000001</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <v>133.46539999999999</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>41.187600000000003</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>-1.6645830451845027</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="2"/>
+        <v>0.15914773656747602</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="5"/>
+        <v>0.84085226343252395</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="6"/>
+        <v>-0.17333930217835691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
         <v>66</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>1112.9494</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>10.174992</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>10.034998</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>5.7270000000000003</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>85.451799999999992</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ref="H72:H93" si="7">SUMPRODUCT($B$4:$F$4,B72:F72)+$G$4</f>
+        <v>-19.83392862064764</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ref="I72:I93" si="8">1/(1+EXP(-H72))</f>
+        <v>2.4335162158610713E-9</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J93" si="9">IF(I72&gt;0.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ref="K72:K93" si="10">IF(J72=G72,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" ref="L72:L93" si="11">IF(G72=1,I72,1-I72)</f>
+        <v>0.99999999756648383</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ref="M72:M93" si="12">LN(L72)</f>
+        <v>-2.4335161693167875E-9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
         <v>67</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>20.931899999999999</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>27.724731000000002</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>9.8437280000000005</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <v>15.7706</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <v>20.218599999999999</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>2.3753706143060516</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="8"/>
+        <v>0.9149298055475904</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="11"/>
+        <v>0.9149298055475904</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="12"/>
+        <v>-8.8907931897916001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
         <v>68</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>2795.6318000000001</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>10.682173000000001</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>4.2433699999999996</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>10.211399999999999</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>36.3459</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>-53.329292106523532</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="8"/>
+        <v>6.908483335467504E-24</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
         <v>69</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>124.73779999999999</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>23.328166</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>13.236072</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <v>40.849800000000002</v>
       </c>
-      <c r="F74">
+      <c r="F75">
         <v>80.803799999999995</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>-0.52795828671277789</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="8"/>
+        <v>0.37099321100082178</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="11"/>
+        <v>0.62900678899917817</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="12"/>
+        <v>-0.46361322901851609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
         <v>70</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>461.43079999999998</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>20.47879</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>9.0662190000000002</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>15.679600000000001</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <v>88.838700000000003</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>-6.7023403949285321</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="8"/>
+        <v>1.2265282322742369E-3</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="11"/>
+        <v>0.9987734717677258</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="12"/>
+        <v>-1.2272810336442005E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
         <v>71</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>120.726</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>23.97214</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>10.747150999999999</v>
       </c>
-      <c r="E76">
+      <c r="E77">
         <v>12.663600000000001</v>
       </c>
-      <c r="F76">
+      <c r="F77">
         <v>61.724400000000003</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>0.16520879519055853</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="8"/>
+        <v>0.54120851282997384</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="11"/>
+        <v>0.45879148717002616</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="12"/>
+        <v>-0.77915944845436413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
         <v>72</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>18.136849999999999</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>42.192910000000005</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>10.350371000000001</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>3.7098</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <v>46.815300000000001</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>2.2964470005493816</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="8"/>
+        <v>0.90858235331750403</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="11"/>
+        <v>0.90858235331750403</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="12"/>
+        <v>-9.5869747683978851E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
         <v>73</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>44.603200000000001</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>24.625837999999998</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>22.360833</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>2.0908000000000002</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <v>29.316199999999998</v>
       </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>0.81529050275092629</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="8"/>
+        <v>0.69323573109480097</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="11"/>
+        <v>0.69323573109480097</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="12"/>
+        <v>-0.36638517732367742</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
         <v>74</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>78.210999999999999</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>10.045872000000001</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>23.183485999999998</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>5.5045999999999999</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>51.752299999999998</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>4.6341329830742239E-2</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="8"/>
+        <v>0.51158325959284923</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="11"/>
+        <v>0.51158325959284923</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="12"/>
+        <v>-0.67024493148433728</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
         <v>75</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>422.89620000000002</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>31.747116999999999</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>11.610423000000001</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>76.035799999999995</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <v>233.4579</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>-7.4531650461263563</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="8"/>
+        <v>5.7926848543633303E-4</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="11"/>
+        <v>0.99942073151456368</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="12"/>
+        <v>-5.7943632624515764E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82">
         <v>76</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>189.78100000000001</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>35.808132999999998</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>12.294056000000001</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>135.55779999999999</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <v>170.464</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>-3.2142982305389847</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="8"/>
+        <v>3.8631186317516192E-2</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="11"/>
+        <v>0.96136881368248384</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="12"/>
+        <v>-3.9397162489766713E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
         <v>77</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>267.40940000000001</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>43.604457000000004</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>6.1782730000000008</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>135.9332</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>206.05850000000001</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>-4.3988089017919236</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="8"/>
+        <v>1.2142714228195232E-2</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="11"/>
+        <v>0.98785728577180476</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="12"/>
+        <v>-1.2217039267216363E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
         <v>78</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>660.63639999999998</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>38.904634999999999</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>12.255158</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <v>52.7104</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <v>220.9068</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>-12.105535528631227</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="8"/>
+        <v>5.5287928497727042E-6</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="11"/>
+        <v>0.99999447120715024</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="12"/>
+        <v>-5.528808133594231E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
         <v>79</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>238.983</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>31.110168999999999</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>34.546610000000001</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>83.898399999999995</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>154.661</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>-5.7239756011353791</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="8"/>
+        <v>3.256061395091118E-3</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="11"/>
+        <v>0.99674393860490884</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="12"/>
+        <v>-3.2613738980204168E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
         <v>80</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>66.736199999999997</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>69.739311999999998</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>16.05376</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <v>21.3186</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>106.10299999999999</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>0.12189831674904283</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="8"/>
+        <v>0.53043689952060025</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="11"/>
+        <v>0.46956310047939975</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="12"/>
+        <v>-0.75595259004745319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
         <v>81</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>57.906399999999998</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>63.747216000000002</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>17.934297999999998</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <v>26.725999999999999</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>60.634700000000002</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>0.28095614981904582</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="8"/>
+        <v>0.5697806212014187</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="11"/>
+        <v>0.4302193787985813</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="12"/>
+        <v>-0.84346001714124208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
         <v>82</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>220.82634999999999</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>17.761026999999999</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>3.0764940000000003</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>217.75540000000001</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>235.73929999999999</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>-3.9366006797866309</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="8"/>
+        <v>1.914091377393903E-2</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="11"/>
+        <v>1.914091377393903E-2</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="12"/>
+        <v>-3.9559271525118107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
         <v>83</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>37.339750000000002</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>40.123891999999998</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>30.374258000000001</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>20.648700000000002</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>167.63120000000001</v>
       </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>-0.66331370463549533</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="8"/>
+        <v>0.33999562708029285</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="11"/>
+        <v>0.33999562708029285</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="12"/>
+        <v>-1.0788225229831905</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
         <v>84</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>14.473699999999999</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>140.934211</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>9.3421050000000001</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>3.0701999999999998</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>37.596499999999999</v>
       </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>1.7267023874115792</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="8"/>
+        <v>0.84899013327267203</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="11"/>
+        <v>0.84899013327267203</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="12"/>
+        <v>-0.16370771432527964</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
         <v>85</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>1269.2434000000001</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>18.659200999999999</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>10.154643</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <v>107.2208</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>246.0558</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>-24.788292042178078</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="8"/>
+        <v>1.7162539519091081E-11</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="11"/>
+        <v>0.99999999998283751</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="12"/>
+        <v>-1.7162493648617722E-11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
         <v>86</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>192.02699999999999</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>30.881527000000002</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>24.188658</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>59.517200000000003</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>100.23860000000001</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>-3.2933847074113052</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="8"/>
+        <v>3.5798831266518893E-2</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="11"/>
+        <v>0.96420116873348105</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="12"/>
+        <v>-3.645532488369882E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
         <v>87</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>220.07239999999999</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>14.933961</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>13.052915</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>38.361199999999997</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>125.27760000000001</v>
       </c>
-      <c r="G92">
-        <v>0</v>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>-2.5230101021075244</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="8"/>
+        <v>7.4260747048362205E-2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="11"/>
+        <v>0.92573925295163784</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="12"/>
+        <v>-7.7162668273744697E-2</v>
       </c>
     </row>
   </sheetData>
